--- a/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.5376851974408208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6204796673827933</v>
+        <v>-0.6204796673827931</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.371222103536664</v>
@@ -664,7 +664,7 @@
         <v>0.08805532766165397</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.07354161709213161</v>
+        <v>-0.07354161709213128</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.03749684828620504</v>
+        <v>-0.3544501043574951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.49902008972074</v>
+        <v>-2.822890437525083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.821623439087796</v>
+        <v>-3.056116841702474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2460989191613458</v>
+        <v>-0.1272571717799607</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.309674855669956</v>
+        <v>-1.310178763616152</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.515427042633377</v>
+        <v>-1.693964913824537</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5557595923300965</v>
+        <v>0.4449517892865157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.338830856850895</v>
+        <v>-1.314866088583706</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.796273780406723</v>
+        <v>-1.454925318994502</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.354072547001958</v>
+        <v>5.175362853309921</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.146316803791538</v>
+        <v>0.9615155805847465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9189774795901662</v>
+        <v>0.7636588255123173</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.427501467110018</v>
+        <v>5.587828719745158</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.979456980729854</v>
+        <v>2.798117476898697</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.192464004914448</v>
+        <v>2.103451690077576</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.363658519567607</v>
+        <v>4.219725611647336</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.449831153034634</v>
+        <v>1.460780597929637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9524361112179094</v>
+        <v>1.109495090016045</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4204474899976954</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4851893263704986</v>
+        <v>-0.4851893263704985</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.870073982597109</v>
@@ -769,7 +769,7 @@
         <v>0.06914242366113396</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.05774603060075133</v>
+        <v>-0.05774603060075106</v>
       </c>
     </row>
     <row r="8">
@@ -780,27 +780,27 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.341901967491092</v>
+        <v>-0.4917129585427285</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.4123925559810154</v>
+        <v>-0.2880060452517254</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7503804012075244</v>
+        <v>-0.7335494610713928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6716899214465565</v>
+        <v>-0.6784892049468619</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1292291594464926</v>
+        <v>0.02644655742003717</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.691256959026762</v>
+        <v>-0.748195544926476</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7243110959219013</v>
+        <v>-0.6629001284037994</v>
       </c>
     </row>
     <row r="9">
@@ -815,17 +815,17 @@
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>7.9254918972019</v>
+        <v>8.511268956912</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>6.974965489753855</v>
+        <v>6.864500584749166</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.84460062364719</v>
+        <v>2.644303866998921</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.727909755214053</v>
+        <v>2.163706650728451</v>
       </c>
     </row>
     <row r="10">
@@ -855,7 +855,7 @@
         <v>-1.22323622276581</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.129866269803658</v>
+        <v>4.129866269803659</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.3150419283379935</v>
@@ -864,7 +864,7 @@
         <v>-1.598864413239306</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.336500696805315</v>
+        <v>3.336500696805317</v>
       </c>
     </row>
     <row r="11">
@@ -875,31 +875,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.870456316973975</v>
+        <v>-2.865384529975272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.840327685722374</v>
+        <v>-4.043786194386676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3431763638597317</v>
+        <v>0.2811695234730243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.309433242711846</v>
+        <v>-1.458675526761144</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.800929344097891</v>
+        <v>-2.64414848651419</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.004196433859835</v>
+        <v>2.065907206514029</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.524559268752712</v>
+        <v>-1.454116525321986</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.651689953452487</v>
+        <v>-2.718717380901841</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.865927056879028</v>
+        <v>1.803222710802543</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +910,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.023774724734735</v>
+        <v>0.8432345296438462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.6212303578812998</v>
+        <v>-0.7807392619704705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.015687758833464</v>
+        <v>4.867330755887371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.095760022171252</v>
+        <v>1.841864580159312</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1402471882496371</v>
+        <v>-0.0805615249238512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.155179068841388</v>
+        <v>6.341039142918076</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.948958472709352</v>
+        <v>0.967704480042459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6679326113090812</v>
+        <v>-0.716711493665075</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.937498728664387</v>
+        <v>4.801330045853674</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>-0.7984203013381738</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.666138710512165</v>
+        <v>1.666138710512166</v>
       </c>
     </row>
     <row r="14">
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8219366936839747</v>
+        <v>-0.7884323690954295</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.002319537847066082</v>
+        <v>0.008133871009859668</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.566705059868385</v>
+        <v>-0.5744236450552411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7200192565506072</v>
+        <v>0.5660195177813562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5831004940543895</v>
+        <v>-0.5501651436418397</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9491929083699925</v>
+        <v>-0.9504590385331454</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6165807669564171</v>
+        <v>0.5668461855385486</v>
       </c>
     </row>
     <row r="15">
@@ -1015,31 +1015,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.862824741433848</v>
+        <v>0.8068675123863203</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1748783970595544</v>
+        <v>-0.2059552844948926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.542200451979156</v>
+        <v>3.366330940131032</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.44011462115102</v>
+        <v>2.199951061835065</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2777600514518441</v>
+        <v>0.5835410982785698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.647796825747522</v>
+        <v>7.734047846080262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7374840159186721</v>
+        <v>0.6994011609633966</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.376796249863961</v>
+        <v>-0.4125630381495218</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.779243435942033</v>
+        <v>3.479549017610435</v>
       </c>
     </row>
     <row r="16">
@@ -1089,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2384005632665692</v>
+        <v>0.2462308260299748</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6847509965306985</v>
+        <v>-0.6900480000514506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5545446214522007</v>
+        <v>0.4912769203829577</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5678949603462251</v>
+        <v>-0.5622616834760767</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1519014260168999</v>
+        <v>0.09983602828029071</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2560149190436239</v>
+        <v>0.2809752358141126</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3798714263997633</v>
+        <v>-0.4042766646311558</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6275682903268792</v>
+        <v>0.6252144321886304</v>
       </c>
     </row>
     <row r="18">
@@ -1124,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.171967079835857</v>
+        <v>4.254796280230182</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.693865972159653</v>
+        <v>2.00352997347149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.846819108926707</v>
+        <v>3.911467979858232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.336064005128865</v>
+        <v>2.54968129447247</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.080197265490774</v>
+        <v>1.342071264536986</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.133110815199813</v>
+        <v>2.108131430094585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.571348511750882</v>
+        <v>2.653845267881779</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.002556008432281</v>
+        <v>1.169685251017734</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.707377194220019</v>
+        <v>2.516614003611631</v>
       </c>
     </row>
     <row r="19">
@@ -1200,11 +1200,11 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.198066724666311</v>
+        <v>-0.2221195627214088</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>0.1828063296086934</v>
+        <v>0.313935935465923</v>
       </c>
     </row>
     <row r="21">
@@ -1260,7 +1260,7 @@
         <v>-0.2197682991873496</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.206062898289025</v>
+        <v>0.2060628982890243</v>
       </c>
     </row>
     <row r="23">
@@ -1271,31 +1271,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.897525640089076</v>
+        <v>-3.4490348838745</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.495960214546073</v>
+        <v>-3.614016885402235</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.736812666303692</v>
+        <v>-2.508459301528015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1254963342035227</v>
+        <v>0.005264795991045441</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9473155846913893</v>
+        <v>-0.7249185225571309</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9086587829210868</v>
+        <v>-0.9773668065214156</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.229264012499869</v>
+        <v>-1.206765245936232</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.527765810250761</v>
+        <v>-1.537078160220785</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.262414208098495</v>
+        <v>-1.293221675964888</v>
       </c>
     </row>
     <row r="24">
@@ -1306,31 +1306,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2481323984407427</v>
+        <v>0.3648215567445419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4426092901220954</v>
+        <v>0.4816564671870348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.727533351741854</v>
+        <v>2.601241768281122</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.184504947564097</v>
+        <v>4.332993909437883</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.473920791883059</v>
+        <v>3.317711460718792</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.058548802706278</v>
+        <v>2.960717579045487</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.730128001655719</v>
+        <v>1.798308280410433</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.219175279181029</v>
+        <v>1.457298188889839</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.978292939628484</v>
+        <v>2.019925515771285</v>
       </c>
     </row>
     <row r="25">
@@ -1365,7 +1365,7 @@
         <v>-0.1178786661608941</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1105274040222289</v>
+        <v>0.1105274040222285</v>
       </c>
     </row>
     <row r="26">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9192830379673039</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.971849433359911</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7800884730331072</v>
+        <v>-0.751222938941416</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1437497030209735</v>
+        <v>-0.1985184695676768</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5629023564647523</v>
+        <v>-0.4989592457695011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5948605327038964</v>
+        <v>-0.5834212653419489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4969884514721316</v>
+        <v>-0.5086315037050104</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6427337109332469</v>
+        <v>-0.6134893316087666</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.536648290599175</v>
+        <v>-0.5341179881572976</v>
       </c>
     </row>
     <row r="27">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8338923880591145</v>
+        <v>0.7071260428217582</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5992069204176367</v>
+        <v>0.840381085794169</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.277687145552353</v>
+        <v>1.929798650392996</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.905060599102026</v>
+        <v>8.201665691771961</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.860730995441786</v>
+        <v>5.864895475203595</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.129962811606089</v>
+        <v>6.009666403894207</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.496339150493235</v>
+        <v>1.605534781136047</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.045950635124347</v>
+        <v>1.318592373036541</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.78221974312958</v>
+        <v>1.55111910116086</v>
       </c>
     </row>
     <row r="28">
@@ -1485,31 +1485,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0433649289693688</v>
+        <v>0.2154240882590071</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.128014004504333</v>
+        <v>-5.0631319221432</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.278042793537371</v>
+        <v>-5.592642558297069</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.845025150043793</v>
+        <v>-4.096750897012532</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.778660917100117</v>
+        <v>-8.975087701132557</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.373699689885161</v>
+        <v>-6.696742109820128</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7252649084529356</v>
+        <v>-0.5220623025898932</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.03775538063966</v>
+        <v>-5.87043802201069</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.807044490080545</v>
+        <v>-4.796068260173163</v>
       </c>
     </row>
     <row r="30">
@@ -1520,31 +1520,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.055652287031149</v>
+        <v>8.810744077475421</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.02213853154125655</v>
+        <v>-0.06121143124732445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5693143613283362</v>
+        <v>-0.5078069775881212</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.491120798382847</v>
+        <v>5.446192376656141</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.541884814308506</v>
+        <v>-2.602265942920607</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1658864898893361</v>
+        <v>0.09617737711159913</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.499700762917112</v>
+        <v>5.597776422472796</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.066557329307912</v>
+        <v>-1.88599171114951</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.5776308886882267</v>
+        <v>-0.5823406217704222</v>
       </c>
     </row>
     <row r="31">
@@ -1579,7 +1579,7 @@
         <v>-0.9001977646770133</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.608404636129154</v>
+        <v>-0.6084046361291539</v>
       </c>
     </row>
     <row r="32">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07956511400566135</v>
+        <v>-0.06980112080532676</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
@@ -1599,20 +1599,20 @@
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5696130888030668</v>
+        <v>-0.577720540371529</v>
       </c>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>-0.7962323688613091</v>
+        <v>-0.8058028330342027</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1807936557175931</v>
+        <v>-0.1225333098773618</v>
       </c>
       <c r="J32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7989833191431625</v>
+        <v>-0.8298211402408089</v>
       </c>
     </row>
     <row r="33">
@@ -1623,29 +1623,29 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.418926503655038</v>
+        <v>5.48273493438862</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5846914951720192</v>
+        <v>0.6409245594244267</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4766485314665749</v>
+        <v>0.1361912756280327</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.766939710623966</v>
+        <v>1.887634954121646</v>
       </c>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>0.2118675791462498</v>
+        <v>0.1148699753006599</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.928706520323534</v>
+        <v>2.122574640757179</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.6277334169520684</v>
+        <v>-0.5795274845979785</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1243202088137617</v>
+        <v>-0.172852257379613</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1675,7 @@
         <v>1.051837664464528</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.752577606591497</v>
+        <v>3.752577606591495</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.384363499896146</v>
@@ -1695,31 +1695,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7583412088782082</v>
+        <v>-0.7597337448897973</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.393413246194915</v>
+        <v>0.3569601868988524</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.9642863306347756</v>
+        <v>0.8816113641320554</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3462819681007959</v>
+        <v>-0.3416016817133316</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.3377619001376588</v>
+        <v>-0.3015497598709878</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.977147815214521</v>
+        <v>2.026529954432949</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3611438279828043</v>
+        <v>-0.3676467396010407</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.4742045032957443</v>
+        <v>0.4946263168847453</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.94135387381271</v>
+        <v>1.823223028026605</v>
       </c>
     </row>
     <row r="36">
@@ -1730,31 +1730,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.177530437772675</v>
+        <v>1.180134873129483</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.994192417939856</v>
+        <v>4.705108239130094</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.717755813815748</v>
+        <v>4.606547272884492</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.36161912819755</v>
+        <v>2.605460449800102</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.888230287013409</v>
+        <v>3.15444661174419</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.955914757599677</v>
+        <v>6.078670890392819</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.30353635946377</v>
+        <v>1.494114355924708</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.257164742348738</v>
+        <v>3.159806910115154</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.777493569969857</v>
+        <v>4.516787424987677</v>
       </c>
     </row>
     <row r="37">
@@ -1771,7 +1771,7 @@
         <v>5.736608259755233</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>6.80053687401962</v>
+        <v>6.800536874019619</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>2.191662505046299</v>
@@ -1805,12 +1805,14 @@
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
-      <c r="I38" s="6" t="inlineStr"/>
+      <c r="I38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3050623867108737</v>
+        <v>0.09976052011454259</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.206615995617712</v>
+        <v>1.474966867740399</v>
       </c>
     </row>
     <row r="39">
@@ -1866,7 +1868,7 @@
         <v>-0.3456287931631141</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.544746521269231</v>
+        <v>3.544746521269232</v>
       </c>
     </row>
     <row r="41">
@@ -1877,31 +1879,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.181335088124797</v>
+        <v>-2.040468819037345</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.64142928436892</v>
+        <v>-1.646448561122274</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.662847080984571</v>
+        <v>0.6523654778408906</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.197879397402598</v>
+        <v>-1.308101483660931</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.874804527174935</v>
+        <v>-1.864076261834369</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.763495012643301</v>
+        <v>2.621355034782218</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.272120322736146</v>
+        <v>-1.170983585314958</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.378526447416314</v>
+        <v>-1.280867041630612</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.221324279896072</v>
+        <v>2.295759882513044</v>
       </c>
     </row>
     <row r="42">
@@ -1912,31 +1914,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.6255907586541513</v>
+        <v>0.6645428427570153</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.394567646192315</v>
+        <v>1.244291236692514</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.623562850864697</v>
+        <v>4.509257780100462</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.679496425769311</v>
+        <v>1.841022558710539</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.9097558737341497</v>
+        <v>0.9025095883876818</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.450127566274694</v>
+        <v>6.309198587904392</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8011376433749979</v>
+        <v>0.8508249224520901</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6321023318235084</v>
+        <v>0.6677695366103616</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.947275747795078</v>
+        <v>5.065539061736779</v>
       </c>
     </row>
     <row r="43">
@@ -1971,7 +1973,7 @@
         <v>-0.2016139536566745</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.06773965306344</v>
+        <v>2.067739653063441</v>
       </c>
     </row>
     <row r="44">
@@ -1982,31 +1984,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8298891956745832</v>
+        <v>-0.8031310946306073</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6751426206813829</v>
+        <v>-0.7210966089434955</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.07591332077334198</v>
+        <v>0.1589107786097299</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.519702386099867</v>
+        <v>-0.5461622802452313</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7460910994332237</v>
+        <v>-0.7455280637416402</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9444909242091886</v>
+        <v>0.8655469875689337</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.570225973482028</v>
+        <v>-0.5400189424033057</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6195852376217114</v>
+        <v>-0.5836843817203178</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.9252563865807751</v>
+        <v>0.9848048544648129</v>
       </c>
     </row>
     <row r="45">
@@ -2017,31 +2019,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9920423600135664</v>
+        <v>0.7683059425832489</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.681410542507421</v>
+        <v>1.237426458447066</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.56440547975352</v>
+        <v>4.211451035395434</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.827800025342261</v>
+        <v>1.777116825688644</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.064227003500552</v>
+        <v>1.020522953617098</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>6.620191625774452</v>
+        <v>5.968926133492771</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6875086040199235</v>
+        <v>0.825030493381095</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5957482623453916</v>
+        <v>0.5999806508074499</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>4.199417002565519</v>
+        <v>4.46248032173468</v>
       </c>
     </row>
     <row r="46">
@@ -2091,31 +2093,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.212106855724945</v>
+        <v>-1.103519384355278</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.23370594211422</v>
+        <v>-1.208504944780439</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.440469009164288</v>
+        <v>-1.39410495432077</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.17191251235031</v>
+        <v>-1.993851207855179</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.759817898852924</v>
+        <v>-2.6127902004695</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.718774927470709</v>
+        <v>-2.606897856896681</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.193031231962999</v>
+        <v>-1.263808024677126</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.634259923376994</v>
+        <v>-1.588337841885122</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.695256928948461</v>
+        <v>-1.78554300329719</v>
       </c>
     </row>
     <row r="48">
@@ -2126,31 +2128,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8643795662351718</v>
+        <v>0.9579257064912577</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9298038956722144</v>
+        <v>0.8463959660956388</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.5607488029295312</v>
+        <v>0.5749053540049789</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.5976412770854268</v>
+        <v>0.5711924194224322</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.2327606466655795</v>
+        <v>-0.207363197754602</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.3938842481743811</v>
+        <v>-0.4489013960742002</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5224323889800822</v>
+        <v>0.4431332976919081</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.03256749656121465</v>
+        <v>0.05151610770445306</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.154031429599167</v>
+        <v>-0.2337242279534713</v>
       </c>
     </row>
     <row r="49">
@@ -2196,31 +2198,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7167546082967482</v>
+        <v>-0.70364818031472</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7691199094890062</v>
+        <v>-0.7803174854531624</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8936448419318327</v>
+        <v>-0.8926096634836433</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7149538343213903</v>
+        <v>-0.68637687200947</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8932969907121056</v>
+        <v>-0.8807788810908976</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.8804673682505422</v>
+        <v>-0.8741975217720943</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.57293496863436</v>
+        <v>-0.6123865817492642</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7602929861119375</v>
+        <v>-0.7517012681228421</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7997572263903718</v>
+        <v>-0.8114353315019319</v>
       </c>
     </row>
     <row r="51">
@@ -2231,31 +2233,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.832086803477007</v>
+        <v>2.089240806032864</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.891620227607232</v>
+        <v>1.609060333570065</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.356703994311429</v>
+        <v>1.39771114554333</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4928508550240366</v>
+        <v>0.4869411980766712</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.02925161879131639</v>
+        <v>0.03092346491577967</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.233063238093445</v>
+        <v>-0.2536163066848238</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4780755438255989</v>
+        <v>0.4070877453202296</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02781602065762382</v>
+        <v>0.1337167817221051</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.09444575151680473</v>
+        <v>-0.1476932402303741</v>
       </c>
     </row>
     <row r="52">
@@ -2285,7 +2287,7 @@
         <v>-0.593532243017768</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.571762213672231</v>
+        <v>1.57176221367223</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.3375140030689432</v>
@@ -2305,31 +2307,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.4765025440357321</v>
+        <v>-0.4817827841259929</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.056673425951921</v>
+        <v>-1.099199656433419</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.2419736692082083</v>
+        <v>0.2381297645340701</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.1816305185952086</v>
+        <v>-0.1320542594783256</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.197692591983375</v>
+        <v>-1.168616491047819</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.9303932081381189</v>
+        <v>0.886053950993462</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1371870450169951</v>
+        <v>-0.1854148260049639</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.9552204224252397</v>
+        <v>-0.9422789487742664</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.7599440150127458</v>
+        <v>0.8014221219909579</v>
       </c>
     </row>
     <row r="54">
@@ -2340,31 +2342,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.7497818488737716</v>
+        <v>0.810567499961756</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.07246387222178372</v>
+        <v>0.08439416269470519</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.653760173962018</v>
+        <v>1.716718834431219</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.235987020700036</v>
+        <v>1.253642957056308</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.0285582313182852</v>
+        <v>-0.04717459289232304</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.174419627064028</v>
+        <v>2.287606553347768</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.795635297889119</v>
+        <v>0.7823525282394849</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.1362685076381577</v>
+        <v>-0.1535965691640576</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.708044868366108</v>
+        <v>1.743379057132088</v>
       </c>
     </row>
     <row r="55">
@@ -2390,7 +2392,7 @@
         <v>-0.3580343309502114</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.9481284954693089</v>
+        <v>0.9481284954693084</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2104701161591244</v>
@@ -2410,31 +2412,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2746192258288391</v>
+        <v>-0.2652268974515355</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5789201929528356</v>
+        <v>-0.572062577487442</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.11954106841531</v>
+        <v>0.1132148501113103</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.0985322935910989</v>
+        <v>-0.07000732925102793</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5878960045562956</v>
+        <v>-0.5886673467913278</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4516692455804637</v>
+        <v>0.4233040969343767</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.08006593536852691</v>
+        <v>-0.09285030442578647</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.5216025426905698</v>
+        <v>-0.5242170743723937</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.4197680603123648</v>
+        <v>0.4302047873490845</v>
       </c>
     </row>
     <row r="57">
@@ -2445,31 +2447,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.598247849501919</v>
+        <v>0.6413242232905922</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.08125335419605736</v>
+        <v>0.08389148665027592</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.337966115359523</v>
+        <v>1.421001099366693</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8905414995524754</v>
+        <v>0.9342571909300746</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.01336527468968083</v>
+        <v>-0.03259679734493327</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.637588290845625</v>
+        <v>1.72213194009841</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5565654443964506</v>
+        <v>0.5683272723797771</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.09809258294524946</v>
+        <v>-0.1108378135248572</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.253436879659351</v>
+        <v>1.237774236844872</v>
       </c>
     </row>
     <row r="58">
